--- a/src/test/resources/testData/ProductEdit.xlsx
+++ b/src/test/resources/testData/ProductEdit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Id</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>2850513839</t>
+  </si>
+  <si>
+    <t>8990391387</t>
   </si>
 </sst>
 </file>
@@ -482,12 +485,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.796875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.59765625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="13.796875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="19.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="15.19921875" collapsed="false"/>
-    <col min="6" max="11" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.59765625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="19.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.19921875" collapsed="true"/>
+    <col min="6" max="11" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -547,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>

--- a/src/test/resources/testData/ProductEdit.xlsx
+++ b/src/test/resources/testData/ProductEdit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>8990391387</t>
+  </si>
+  <si>
+    <t>7458516057</t>
   </si>
 </sst>
 </file>
@@ -550,7 +553,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>

--- a/src/test/resources/testData/ProductEdit.xlsx
+++ b/src/test/resources/testData/ProductEdit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>7458516057</t>
+  </si>
+  <si>
+    <t>0687486396</t>
+  </si>
+  <si>
+    <t>9028104832</t>
+  </si>
+  <si>
+    <t>9236623086</t>
   </si>
 </sst>
 </file>
@@ -553,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
